--- a/test_data/mycobot_320.xlsx
+++ b/test_data/mycobot_320.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300" firstSheet="16" activeTab="22"/>
+    <workbookView windowWidth="23040" windowHeight="9060" firstSheet="32" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="get_system_version" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,22 @@
     <sheet name="get_reference_frame" sheetId="21" r:id="rId21"/>
     <sheet name="get_movement_type" sheetId="22" r:id="rId22"/>
     <sheet name="get_end_type" sheetId="23" r:id="rId23"/>
+    <sheet name="get_encoder" sheetId="24" r:id="rId24"/>
+    <sheet name="get_encoders" sheetId="25" r:id="rId25"/>
+    <sheet name="get_servo_currents" sheetId="26" r:id="rId26"/>
+    <sheet name="get_servo_speeds" sheetId="27" r:id="rId27"/>
+    <sheet name="get_servo_voltages" sheetId="28" r:id="rId28"/>
+    <sheet name="get_servo_status" sheetId="30" r:id="rId29"/>
+    <sheet name="get_servo_temps" sheetId="29" r:id="rId30"/>
+    <sheet name="get_servo_last_pdi" sheetId="31" r:id="rId31"/>
+    <sheet name="get_basic_input" sheetId="32" r:id="rId32"/>
+    <sheet name="get_digital_input" sheetId="33" r:id="rId33"/>
+    <sheet name="set_fresh_mode" sheetId="34" r:id="rId34"/>
+    <sheet name="send_angle" sheetId="35" r:id="rId35"/>
+    <sheet name="send_angles" sheetId="36" r:id="rId36"/>
+    <sheet name="send_coord" sheetId="37" r:id="rId37"/>
+    <sheet name="send_coords" sheetId="38" r:id="rId38"/>
+    <sheet name="pause" sheetId="39" r:id="rId39"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="245">
   <si>
     <t>ID</t>
   </si>
@@ -400,6 +416,390 @@
   </si>
   <si>
     <t>设置后读取末端坐标系</t>
+  </si>
+  <si>
+    <t>正确获取1关节电位值</t>
+  </si>
+  <si>
+    <t>get_encoder</t>
+  </si>
+  <si>
+    <t>正确获取2关节电位值</t>
+  </si>
+  <si>
+    <t>正确获取3关节电位值</t>
+  </si>
+  <si>
+    <t>正确获取4关节电位值</t>
+  </si>
+  <si>
+    <t>正确获取5关节电位值</t>
+  </si>
+  <si>
+    <t>正确获取6关节电位值</t>
+  </si>
+  <si>
+    <t>正确全关节电位值</t>
+  </si>
+  <si>
+    <t>get_encoders</t>
+  </si>
+  <si>
+    <t>[2048, 2048, 2048, 2048, 2048, 2048]</t>
+  </si>
+  <si>
+    <t>速度50，正确获取全关节电流</t>
+  </si>
+  <si>
+    <t>get_servo_currents</t>
+  </si>
+  <si>
+    <t>[0,3250]</t>
+  </si>
+  <si>
+    <t>速度100，正确获取全关节电流</t>
+  </si>
+  <si>
+    <t>速度50，正确获取全关节运动速度</t>
+  </si>
+  <si>
+    <t>get_servo_speeds</t>
+  </si>
+  <si>
+    <t>[-3000,3000]</t>
+  </si>
+  <si>
+    <t>速度100，正确获取全关节运动速度</t>
+  </si>
+  <si>
+    <t>速度50，正确获取全关节电压</t>
+  </si>
+  <si>
+    <t>get_servo_voltages</t>
+  </si>
+  <si>
+    <t>[0,24]</t>
+  </si>
+  <si>
+    <t>速度100，正确获取全关节电压</t>
+  </si>
+  <si>
+    <t>速度50，正确获取全关节运动状态</t>
+  </si>
+  <si>
+    <t>get_servo_status</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>速度100，正确获取全关节运动状态</t>
+  </si>
+  <si>
+    <t>速度50，正确获取全关节温度</t>
+  </si>
+  <si>
+    <t>get_servo_temps</t>
+  </si>
+  <si>
+    <t>[0,255]</t>
+  </si>
+  <si>
+    <t>速度100，正确获取全关节温度</t>
+  </si>
+  <si>
+    <t>正确获取1关节pdi值</t>
+  </si>
+  <si>
+    <t>get_servo_last_pdi</t>
+  </si>
+  <si>
+    <t>[32,8,0]</t>
+  </si>
+  <si>
+    <t>正确获取2关节pdi值</t>
+  </si>
+  <si>
+    <t>正确获取3关节pdi值</t>
+  </si>
+  <si>
+    <t>正确获取4关节pdi值</t>
+  </si>
+  <si>
+    <t>正确获取5关节pdi值</t>
+  </si>
+  <si>
+    <t>正确获取6关节pdi值</t>
+  </si>
+  <si>
+    <t>获取关节pdi值（超限）</t>
+  </si>
+  <si>
+    <t>正确获取底部引脚1-IO值1</t>
+  </si>
+  <si>
+    <t>get_basic_input</t>
+  </si>
+  <si>
+    <t>正确获取底部引脚2-IO值1</t>
+  </si>
+  <si>
+    <t>正确获取底部引脚3-IO值1</t>
+  </si>
+  <si>
+    <t>正确获取底部引脚4-IO值1</t>
+  </si>
+  <si>
+    <t>正确获取底部引脚5-IO值1</t>
+  </si>
+  <si>
+    <t>正确获取底部引脚6-IO值1</t>
+  </si>
+  <si>
+    <t>正确获取底部引脚1-IO值0</t>
+  </si>
+  <si>
+    <t>正确获取底部引脚2-IO值0</t>
+  </si>
+  <si>
+    <t>正确获取底部引脚3-IO值0</t>
+  </si>
+  <si>
+    <t>正确获取底部引脚4-IO值0</t>
+  </si>
+  <si>
+    <t>正确获取底部引脚5-IO值0</t>
+  </si>
+  <si>
+    <t>正确获取底部引脚6-IO值0</t>
+  </si>
+  <si>
+    <t>获取底部引脚IO（超限）</t>
+  </si>
+  <si>
+    <t>get_digital_input</t>
+  </si>
+  <si>
+    <t>设置运动模式为1</t>
+  </si>
+  <si>
+    <t>set_fresh_mode</t>
+  </si>
+  <si>
+    <t>设置运动模式为0</t>
+  </si>
+  <si>
+    <t>设置运动模式（超限）</t>
+  </si>
+  <si>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>插补模式下发送单关节角度</t>
+  </si>
+  <si>
+    <t>send_angle</t>
+  </si>
+  <si>
+    <t>刷新模式下发送单关节角度</t>
+  </si>
+  <si>
+    <t>设置关节超限</t>
+  </si>
+  <si>
+    <t>设置1关节角度超限</t>
+  </si>
+  <si>
+    <t>设置2关节角度超限</t>
+  </si>
+  <si>
+    <t>设置3关节角度超限</t>
+  </si>
+  <si>
+    <t>设置4关节角度超限</t>
+  </si>
+  <si>
+    <t>设置5关节角度超限</t>
+  </si>
+  <si>
+    <t>设置6关节角度超限</t>
+  </si>
+  <si>
+    <t>设置速度超限</t>
+  </si>
+  <si>
+    <t>angles</t>
+  </si>
+  <si>
+    <t>插补模式下发送速度10全关节角度</t>
+  </si>
+  <si>
+    <t>send_angles</t>
+  </si>
+  <si>
+    <t>[45,45,45,45,45,45]</t>
+  </si>
+  <si>
+    <t>插补模式下发送速度50全关节角度</t>
+  </si>
+  <si>
+    <t>插补模式下发送速度100全关节角度</t>
+  </si>
+  <si>
+    <t>刷新模式下发送速度10全关节角度</t>
+  </si>
+  <si>
+    <t>刷新模式下发送速度50全关节角度</t>
+  </si>
+  <si>
+    <t>刷新模式下发送速度100全关节角度</t>
+  </si>
+  <si>
+    <t>[169,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t>[-169,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t>[0,136,0,0,0,0]</t>
+  </si>
+  <si>
+    <t>[0,-136,0,0,0,0]</t>
+  </si>
+  <si>
+    <t>[0,0,146,0,0,0]</t>
+  </si>
+  <si>
+    <t>[0,0,-146,0,0,0]</t>
+  </si>
+  <si>
+    <t>[0,0,0,149,0,0]</t>
+  </si>
+  <si>
+    <t>[0,0,0,-149,0,0]</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,169,0]</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,-169,0]</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,0,181]</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,0,-181]</t>
+  </si>
+  <si>
+    <t>coord</t>
+  </si>
+  <si>
+    <t>发送单关节坐标</t>
+  </si>
+  <si>
+    <t>设置坐标超限</t>
+  </si>
+  <si>
+    <t>设置1坐标超限</t>
+  </si>
+  <si>
+    <t>设置2坐标超限</t>
+  </si>
+  <si>
+    <t>设置3坐标超限</t>
+  </si>
+  <si>
+    <t>设置4坐标超限</t>
+  </si>
+  <si>
+    <t>设置5坐标超限</t>
+  </si>
+  <si>
+    <t>设置6坐标超限</t>
+  </si>
+  <si>
+    <t>coords</t>
+  </si>
+  <si>
+    <t>发送速度10全坐标</t>
+  </si>
+  <si>
+    <t>send_coords</t>
+  </si>
+  <si>
+    <t>[210,-50,200,150,50,-50]</t>
+  </si>
+  <si>
+    <t>发送速度50全坐标</t>
+  </si>
+  <si>
+    <t>发送速度100全坐标</t>
+  </si>
+  <si>
+    <t>[351,-50,200,150,50,-50]</t>
+  </si>
+  <si>
+    <t>[-351,-50,200,150,50,-50]</t>
+  </si>
+  <si>
+    <t>[210,351,200,150,50,-50]</t>
+  </si>
+  <si>
+    <t>[210,-351,200,150,50,-50]</t>
+  </si>
+  <si>
+    <t>[210,-50,524,150,50,-50]</t>
+  </si>
+  <si>
+    <t>[210,-50,-42,150,50,-50]</t>
+  </si>
+  <si>
+    <t>[210,-50,200,181,50,-50]</t>
+  </si>
+  <si>
+    <t>[210,-50,200,-181,50,-50]</t>
+  </si>
+  <si>
+    <t>[210,-50,200,150,181,-50]</t>
+  </si>
+  <si>
+    <t>[210,-50,200,150,-181,-50]</t>
+  </si>
+  <si>
+    <t>[210,-50,200,150,50,181]</t>
+  </si>
+  <si>
+    <t>[210,-50,200,150,50,-181]</t>
+  </si>
+  <si>
+    <t>插补模式暂停多角度运动</t>
+  </si>
+  <si>
+    <t>pause</t>
+  </si>
+  <si>
+    <t>插补模式暂停单角度运动</t>
+  </si>
+  <si>
+    <t>插补模式暂停多坐标运动</t>
+  </si>
+  <si>
+    <t>插补模式暂停单坐标运动</t>
+  </si>
+  <si>
+    <t>刷新模式暂停多角度运动</t>
+  </si>
+  <si>
+    <t>刷新模式暂停单角度运动</t>
+  </si>
+  <si>
+    <t>刷新模式暂停多坐标运动</t>
+  </si>
+  <si>
+    <t>刷新模式暂停单坐标运动</t>
   </si>
 </sst>
 </file>
@@ -414,13 +814,19 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -893,16 +1299,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -911,119 +1314,122 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1033,13 +1439,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1367,11 +1779,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="6" customWidth="1"/>
+    <col min="1" max="1" width="13.2222222222222" style="8" customWidth="1"/>
     <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="14.7777777777778" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="8" customWidth="1"/>
     <col min="6" max="6" width="14.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1406,7 +1818,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="7">
+      <c r="E2" s="9">
         <v>1.5</v>
       </c>
       <c r="F2" t="s">
@@ -1414,7 +1826,7 @@
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:6">
-      <c r="A3" s="6">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1423,7 +1835,7 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="8">
         <v>-1</v>
       </c>
       <c r="F3" t="s">
@@ -1443,7 +1855,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1700,7 +2112,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1744,7 +2156,7 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>-168</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1764,7 +2176,7 @@
       <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>-135</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1784,7 +2196,7 @@
       <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>-145</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1804,7 +2216,7 @@
       <c r="D5" s="1">
         <v>4</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>-148</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1824,7 +2236,7 @@
       <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>-168</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1844,7 +2256,7 @@
       <c r="D7" s="1">
         <v>6</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>-180</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1942,7 +2354,7 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>168</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1962,7 +2374,7 @@
       <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>135</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1982,7 +2394,7 @@
       <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>145</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -2002,7 +2414,7 @@
       <c r="D5" s="1">
         <v>4</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>148</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -2022,7 +2434,7 @@
       <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>168</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -2042,7 +2454,7 @@
       <c r="D7" s="1">
         <v>6</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>180</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -2462,7 +2874,7 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2545,13 +2957,13 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
-        <v>21</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="E2" s="3">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
         <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -2571,13 +2983,13 @@
       <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>22</v>
       </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
         <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -2597,13 +3009,13 @@
       <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="4">
-        <v>23</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="E4" s="3">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -2623,13 +3035,13 @@
       <c r="D5" s="1">
         <v>4</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>26</v>
       </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -2649,13 +3061,13 @@
       <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>27</v>
       </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
         <v>3</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -2675,13 +3087,13 @@
       <c r="D7" s="1">
         <v>6</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>18</v>
       </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
         <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -3037,7 +3449,7 @@
       <c r="D2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3113,7 +3525,7 @@
       <c r="D2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3151,11 +3563,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="6" customWidth="1"/>
+    <col min="1" max="1" width="13.2222222222222" style="8" customWidth="1"/>
     <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="14.7777777777778" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="8" customWidth="1"/>
     <col min="6" max="6" width="14.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3190,7 +3602,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="7">
+      <c r="E2" s="9">
         <v>5.2</v>
       </c>
       <c r="F2" t="s">
@@ -3198,7 +3610,7 @@
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:6">
-      <c r="A3" s="6">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3207,7 +3619,7 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="8">
         <v>-1</v>
       </c>
       <c r="F3" t="s">
@@ -3270,7 +3682,7 @@
       <c r="D2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3346,7 +3758,7 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3422,7 +3834,7 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3454,7 +3866,7 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -3498,7 +3910,7 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3514,6 +3926,565 @@
       </c>
       <c r="D3" s="1">
         <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="3"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2048</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2048</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2048</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2048</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2048</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2048</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="43.2" spans="1:6">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="43.2" spans="1:6">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6666666666667" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6666666666667" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6666666666667" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="43.2" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6666666666667" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6666666666667" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="43.2" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>19</v>
@@ -3536,11 +4507,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="6" customWidth="1"/>
+    <col min="1" max="1" width="13.2222222222222" style="8" customWidth="1"/>
     <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="14.7777777777778" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="8" customWidth="1"/>
     <col min="6" max="6" width="14.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3575,7 +4546,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="7">
+      <c r="E2" s="9">
         <v>2.4</v>
       </c>
       <c r="F2" t="s">
@@ -3583,7 +4554,7 @@
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:6">
-      <c r="A3" s="6">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3592,11 +4563,3279 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="8">
         <v>2.4</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6666666666667" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="3"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="3"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="3"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="7" width="9" style="3"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45</v>
+      </c>
+      <c r="F2" s="3">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45</v>
+      </c>
+      <c r="F3" s="3">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45</v>
+      </c>
+      <c r="F4" s="3">
+        <v>50</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45</v>
+      </c>
+      <c r="F5" s="3">
+        <v>50</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45</v>
+      </c>
+      <c r="F6" s="3">
+        <v>100</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45</v>
+      </c>
+      <c r="F7" s="3">
+        <v>100</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>50</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>50</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>100</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>50</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="1">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>50</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" ht="28.8" spans="1:8">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>169</v>
+      </c>
+      <c r="F16" s="3">
+        <v>50</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" ht="28.8" spans="1:8">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-169</v>
+      </c>
+      <c r="F17" s="3">
+        <v>50</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" ht="28.8" spans="1:8">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>136</v>
+      </c>
+      <c r="F18" s="3">
+        <v>50</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" ht="28.8" spans="1:8">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>-136</v>
+      </c>
+      <c r="F19" s="3">
+        <v>50</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" ht="28.8" spans="1:8">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>146</v>
+      </c>
+      <c r="F20" s="3">
+        <v>50</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" ht="28.8" spans="1:8">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-146</v>
+      </c>
+      <c r="F21" s="3">
+        <v>50</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" ht="28.8" spans="1:8">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>149</v>
+      </c>
+      <c r="F22" s="3">
+        <v>50</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" ht="28.8" spans="1:8">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-149</v>
+      </c>
+      <c r="F23" s="3">
+        <v>50</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" ht="28.8" spans="1:8">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>169</v>
+      </c>
+      <c r="F24" s="3">
+        <v>50</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" ht="28.8" spans="1:8">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3">
+        <v>-169</v>
+      </c>
+      <c r="F25" s="3">
+        <v>50</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" ht="28.8" spans="1:8">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" s="1">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3">
+        <v>181</v>
+      </c>
+      <c r="F26" s="3">
+        <v>50</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" ht="28.8" spans="1:8">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="1">
+        <v>6</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-181</v>
+      </c>
+      <c r="F27" s="3">
+        <v>50</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" ht="28.8" spans="1:8">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" ht="28.8" spans="1:8">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>101</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6666666666667" style="3" customWidth="1"/>
+    <col min="5" max="6" width="9" style="3"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" s="3">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="3">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="3">
+        <v>100</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="3">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="3">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="3">
+        <v>100</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" s="3">
+        <v>50</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" s="3">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="3">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="3">
+        <v>50</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="3">
+        <v>50</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="3">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="3">
+        <v>50</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="3">
+        <v>50</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" s="3">
+        <v>50</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="3">
+        <v>50</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19" s="3">
+        <v>50</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="3">
+        <v>101</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="7" width="9" style="3"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>300</v>
+      </c>
+      <c r="F2" s="3">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>100</v>
+      </c>
+      <c r="F4" s="3">
+        <v>50</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:8">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>130</v>
+      </c>
+      <c r="F5" s="3">
+        <v>50</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:8">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>80</v>
+      </c>
+      <c r="F6" s="3">
+        <v>100</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:8">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>100</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>50</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>50</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>351</v>
+      </c>
+      <c r="F10" s="3">
+        <v>50</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-351</v>
+      </c>
+      <c r="F11" s="3">
+        <v>50</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>351</v>
+      </c>
+      <c r="F12" s="3">
+        <v>50</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>-351</v>
+      </c>
+      <c r="F13" s="3">
+        <v>50</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>525</v>
+      </c>
+      <c r="F14" s="3">
+        <v>50</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-42</v>
+      </c>
+      <c r="F15" s="3">
+        <v>50</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4</v>
+      </c>
+      <c r="E16" s="3">
+        <v>181</v>
+      </c>
+      <c r="F16" s="3">
+        <v>50</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-181</v>
+      </c>
+      <c r="F17" s="3">
+        <v>50</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>181</v>
+      </c>
+      <c r="F18" s="3">
+        <v>50</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>-181</v>
+      </c>
+      <c r="F19" s="3">
+        <v>50</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3">
+        <v>181</v>
+      </c>
+      <c r="F20" s="3">
+        <v>50</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-181</v>
+      </c>
+      <c r="F21" s="3">
+        <v>50</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>101</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6666666666667" style="3" customWidth="1"/>
+    <col min="5" max="6" width="9" style="3"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="3">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" s="3">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="3">
+        <v>100</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A5" s="2">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="3">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A6" s="2">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="3">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A7" s="2">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" s="3">
+        <v>50</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A8" s="2">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A9" s="2">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="3">
+        <v>50</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A10" s="2">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E10" s="3">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A11" s="2">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="3">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A12" s="2">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12" s="3">
+        <v>50</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A13" s="2">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="3">
+        <v>50</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A14" s="2">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" s="3">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A15" s="2">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="3">
+        <v>50</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A16" s="2">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E16" s="3">
+        <v>50</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A17" s="2">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A18" s="2">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="3">
+        <v>101</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="28.8" spans="1:9">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3900,7 +8139,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>

--- a/test_data/mycobot_320.xlsx
+++ b/test_data/mycobot_320.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060" firstSheet="32" activeTab="38"/>
+    <workbookView windowWidth="23040" windowHeight="9060" firstSheet="34" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="get_system_version" sheetId="1" r:id="rId1"/>
@@ -46,6 +46,9 @@
     <sheet name="send_coord" sheetId="37" r:id="rId37"/>
     <sheet name="send_coords" sheetId="38" r:id="rId38"/>
     <sheet name="pause" sheetId="39" r:id="rId39"/>
+    <sheet name="is_paused" sheetId="40" r:id="rId40"/>
+    <sheet name="resume" sheetId="41" r:id="rId41"/>
+    <sheet name="stop" sheetId="42" r:id="rId42"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="255">
   <si>
     <t>ID</t>
   </si>
@@ -800,6 +803,36 @@
   </si>
   <si>
     <t>刷新模式暂停单坐标运动</t>
+  </si>
+  <si>
+    <t>expect_data_1</t>
+  </si>
+  <si>
+    <t>expect_data_2</t>
+  </si>
+  <si>
+    <t>插补模式多角度运动-是否暂停移动命令</t>
+  </si>
+  <si>
+    <t>插补模式单角度运动-是否暂停移动命令</t>
+  </si>
+  <si>
+    <t>插补模式多坐标运动-是否移动命令</t>
+  </si>
+  <si>
+    <t>插补模式单坐标运动-是否移动命令</t>
+  </si>
+  <si>
+    <t>刷新模式多角度运动-是否移动命令</t>
+  </si>
+  <si>
+    <t>刷新模式单角度运动-是否移动命令</t>
+  </si>
+  <si>
+    <t>刷新模式多坐标运动-是否移动命令</t>
+  </si>
+  <si>
+    <t>刷新模式单坐标运动-是否移动命令</t>
   </si>
 </sst>
 </file>
@@ -7671,8 +7704,8 @@
   <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7941,6 +7974,243 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="43.2" spans="1:6">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="43.2" spans="1:6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="43.2" spans="1:6">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="43.2" spans="1:6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="43.2" spans="1:10">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="43.2" spans="1:6">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="43.2" spans="1:6">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>

--- a/test_data/mycobot_320.xlsx
+++ b/test_data/mycobot_320.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060" firstSheet="34" activeTab="38"/>
+    <workbookView windowWidth="23040" windowHeight="9060" firstSheet="35" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="get_system_version" sheetId="1" r:id="rId1"/>
@@ -49,6 +49,8 @@
     <sheet name="is_paused" sheetId="40" r:id="rId40"/>
     <sheet name="resume" sheetId="41" r:id="rId41"/>
     <sheet name="stop" sheetId="42" r:id="rId42"/>
+    <sheet name="is_in_position" sheetId="43" r:id="rId43"/>
+    <sheet name="is_moving" sheetId="44" r:id="rId44"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="264">
   <si>
     <t>ID</t>
   </si>
@@ -833,6 +835,33 @@
   </si>
   <si>
     <t>刷新模式单坐标运动-是否移动命令</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>角度运动，是否到达点位</t>
+  </si>
+  <si>
+    <t>is_in_position</t>
+  </si>
+  <si>
+    <t>坐标运动，是否到达点位</t>
+  </si>
+  <si>
+    <t>[260, -89.4, 235.9, 178.24, 0.18, -90.0],</t>
+  </si>
+  <si>
+    <t>角度运动，是否运动</t>
+  </si>
+  <si>
+    <t>is_moving</t>
+  </si>
+  <si>
+    <t>坐标运动，是否运动</t>
+  </si>
+  <si>
+    <t>停止运动，是否运动</t>
   </si>
 </sst>
 </file>
@@ -5490,7 +5519,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -6223,7 +6252,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -7293,8 +7322,8 @@
   <sheetPr/>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -7704,8 +7733,8 @@
   <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7714,7 +7743,7 @@
     <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="16382" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="28.8" spans="1:5">
@@ -7980,7 +8009,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8211,6 +8240,223 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="5:7">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="5:7">
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" spans="5:7">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" spans="5:7">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
